--- a/INFO GLOBAL/data_xlsx.xlsx
+++ b/INFO GLOBAL/data_xlsx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurelien le GAMER\Desktop\BackUp\IUT\SAE ALGO C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurelien le GAMER\Desktop\BackUp\IUT\S1\SAE NAVION\INFO GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755720F-85F0-4850-89A3-C4A1DE6926F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C1A18-A02E-4513-924E-52CBFA8D5540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{EFBDAB1C-05B8-461D-A93C-DA4F1562C2D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFBDAB1C-05B8-461D-A93C-DA4F1562C2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$O$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>Numero de vol</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>NOM41,Prenom41,19/05/1993,8,380.39;NOM39,Prenom39,14/08/1994,1,164.37;NOM2,Prenom2,28/03/2022,2,156.59;NOM15,Prenom15,01/08/1956,5,695.33</t>
+  </si>
+  <si>
+    <t>ecart vol</t>
   </si>
 </sst>
 </file>
@@ -268,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,13 +297,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -604,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38469CF5-B9FD-4CE4-9117-2FE68F6D5268}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,11 +662,13 @@
     <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="252" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="252" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,13 +700,16 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>29</v>
       </c>
@@ -694,14 +740,26 @@
       <c r="J2">
         <v>627</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2">
+        <f>J3-J2</f>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <f>J2</f>
+        <v>627</v>
+      </c>
+      <c r="N2">
+        <f>M3-M2</f>
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -732,14 +790,26 @@
       <c r="J3">
         <v>633</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
+      <c r="K3">
+        <f>J4-J3</f>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <f>J3</f>
+        <v>633</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N41" si="0">M4-M3</f>
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -770,52 +840,76 @@
       <c r="J4">
         <v>726</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="K4">
+        <f>J5-J4</f>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <f>J4</f>
+        <v>726</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>617</v>
+      </c>
+      <c r="F5">
+        <v>639</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>601</v>
-      </c>
-      <c r="F5">
-        <v>621</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
       <c r="H5">
-        <v>644</v>
+        <v>709</v>
       </c>
       <c r="I5">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="J5">
-        <v>737</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
+        <v>752</v>
+      </c>
+      <c r="K5">
+        <f>J6-J5</f>
+        <v>-6</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <f>J5</f>
+        <v>752</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38</v>
       </c>
@@ -846,52 +940,74 @@
       <c r="J6">
         <v>746</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <f>J7-J6</f>
+        <v>-9</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6">
+        <v>813</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F7">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>709</v>
+        <v>644</v>
       </c>
       <c r="I7">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="J7">
-        <v>752</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
+        <v>737</v>
+      </c>
+      <c r="K7">
+        <f>J8-J7</f>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>814</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27</v>
       </c>
@@ -922,14 +1038,26 @@
       <c r="J8">
         <v>816</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
+      <c r="K8">
+        <f>J9-J8</f>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <f>J8</f>
+        <v>816</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -960,14 +1088,26 @@
       <c r="J9">
         <v>829</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
+      <c r="K9">
+        <f>J10-J9</f>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <f>J9</f>
+        <v>829</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -998,90 +1138,126 @@
       <c r="J10">
         <v>907</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
+      <c r="K10">
+        <f>J11-J10</f>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <f>J10</f>
+        <v>907</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>748</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>803</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>823</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>851</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>916</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1">
+        <f>J12-J11</f>
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="1">
+        <f>J11</f>
+        <v>916</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>847</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>916</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>931</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1000</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>1016</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1">
+        <f>J13-J12</f>
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" s="1">
+        <f>J12</f>
+        <v>1016</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1112,14 +1288,26 @@
       <c r="J13">
         <v>1032</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
+      <c r="K13">
+        <f>J14-J13</f>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <f>J13</f>
+        <v>1032</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1150,90 +1338,125 @@
       <c r="J14">
         <v>1040</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
+      <c r="K14">
+        <f>J15-J14</f>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <f>J14</f>
+        <v>1040</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="O14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1045</v>
+      </c>
+      <c r="F15">
+        <v>1110</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1126</v>
+      </c>
+      <c r="I15">
+        <v>1147</v>
+      </c>
+      <c r="J15">
+        <v>1211</v>
+      </c>
+      <c r="K15">
+        <f>J16-J15</f>
+        <v>-7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <f>J15</f>
+        <v>1211</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>1043</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1058</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>1115</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>1143</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>1204</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16">
+        <f>J17-J16</f>
+        <v>98</v>
+      </c>
+      <c r="L16" t="s">
         <v>39</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M16">
+        <v>1242</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>1045</v>
-      </c>
-      <c r="F16">
-        <v>1110</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1126</v>
-      </c>
-      <c r="I16">
-        <v>1147</v>
-      </c>
-      <c r="J16">
-        <v>1211</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -1264,14 +1487,26 @@
       <c r="J17">
         <v>1302</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
+      <c r="K17">
+        <f>J18-J17</f>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <f>J17</f>
+        <v>1302</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1302,14 +1537,25 @@
       <c r="J18">
         <v>1319</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <f>J19-J18</f>
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
         <v>43</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18">
+        <v>1325</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>39</v>
       </c>
@@ -1340,14 +1586,26 @@
       <c r="J19">
         <v>1345</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
+      <c r="K19">
+        <f>J20-J19</f>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <f>J19</f>
+        <v>1345</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1378,204 +1636,273 @@
       <c r="J20">
         <v>1410</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
+      <c r="K20">
+        <f>J21-J20</f>
+        <v>93</v>
       </c>
       <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f>J20</f>
+        <v>1410</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="O20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1343</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1429</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1445</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K21" s="1">
+        <f>J22-J21</f>
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="1">
+        <f>J21</f>
+        <v>1503</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>1257</v>
-      </c>
-      <c r="F21">
-        <v>1316</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>1341</v>
-      </c>
-      <c r="I21">
-        <v>1404</v>
-      </c>
-      <c r="J21">
-        <v>1427</v>
-      </c>
-      <c r="K21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>1307</v>
+        <v>1344</v>
       </c>
       <c r="F22">
-        <v>1324</v>
+        <v>1406</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1347</v>
+        <v>1429</v>
       </c>
       <c r="I22">
-        <v>1414</v>
+        <v>1447</v>
       </c>
       <c r="J22">
-        <v>1438</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
+        <v>1510</v>
+      </c>
+      <c r="K22">
+        <f>J23-J22</f>
+        <v>-83</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="M22">
+        <v>1511</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>1343</v>
+        <v>1257</v>
       </c>
       <c r="F23">
-        <v>1400</v>
+        <v>1316</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>1429</v>
+        <v>1341</v>
       </c>
       <c r="I23">
-        <v>1445</v>
+        <v>1404</v>
       </c>
       <c r="J23">
-        <v>1503</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
+        <v>1427</v>
+      </c>
+      <c r="K23">
+        <f>J24-J23</f>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="M23">
+        <v>1513</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="F24">
         <v>1406</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="I24">
-        <v>1447</v>
+        <v>1458</v>
       </c>
       <c r="J24">
-        <v>1510</v>
-      </c>
-      <c r="K24" t="s">
-        <v>52</v>
+        <v>1527</v>
+      </c>
+      <c r="K24">
+        <f>J25-J24</f>
+        <v>-89</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <f>J24</f>
+        <v>1527</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1336</v>
+        <v>1307</v>
       </c>
       <c r="F25">
-        <v>1406</v>
+        <v>1324</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>1433</v>
+        <v>1347</v>
       </c>
       <c r="I25">
-        <v>1458</v>
+        <v>1414</v>
       </c>
       <c r="J25">
-        <v>1527</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
+        <v>1438</v>
+      </c>
+      <c r="K25">
+        <f>J26-J25</f>
+        <v>110</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="M25">
+        <v>1538</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1606,14 +1933,26 @@
       <c r="J26">
         <v>1548</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
+      <c r="K26">
+        <f>J27-J26</f>
+        <v>99</v>
       </c>
       <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <f>J26</f>
+        <v>1548</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="O26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1644,14 +1983,26 @@
       <c r="J27">
         <v>1647</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
+      <c r="K27">
+        <f>J28-J27</f>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <f>J27</f>
+        <v>1647</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -1682,14 +2033,26 @@
       <c r="J28">
         <v>1655</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
+      <c r="K28">
+        <f>J29-J28</f>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <f>J28</f>
+        <v>1655</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="O28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -1720,14 +2083,26 @@
       <c r="J29">
         <v>1702</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
+      <c r="K29">
+        <f>J30-J29</f>
+        <v>11</v>
       </c>
       <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <f>J29</f>
+        <v>1702</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1758,14 +2133,26 @@
       <c r="J30">
         <v>1713</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
+      <c r="K30">
+        <f>J31-J30</f>
+        <v>113</v>
       </c>
       <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <f>J30</f>
+        <v>1713</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="O30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>40</v>
       </c>
@@ -1796,14 +2183,26 @@
       <c r="J31">
         <v>1826</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
+      <c r="K31">
+        <f>J32-J31</f>
+        <v>75</v>
       </c>
       <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <f>J31</f>
+        <v>1826</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="O31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1834,52 +2233,76 @@
       <c r="J32">
         <v>1901</v>
       </c>
-      <c r="K32" t="s">
-        <v>14</v>
+      <c r="K32">
+        <f>J33-J32</f>
+        <v>6</v>
       </c>
       <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <f>J32</f>
+        <v>1901</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1730</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>1756</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>1819</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>1842</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>1907</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1">
+        <f>J34-J33</f>
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" s="1">
+        <f>J33</f>
+        <v>1907</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -1910,128 +2333,175 @@
       <c r="J34">
         <v>1912</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
+      <c r="K34">
+        <f>J35-J34</f>
+        <v>31</v>
       </c>
       <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <f>J34</f>
+        <v>1912</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1815</v>
+      </c>
+      <c r="F35">
+        <v>1839</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1858</v>
+      </c>
+      <c r="I35">
+        <v>1922</v>
+      </c>
+      <c r="J35">
+        <v>1943</v>
+      </c>
+      <c r="K35">
+        <f>J36-J35</f>
+        <v>59</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <f>J35</f>
+        <v>1943</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1800</v>
-      </c>
-      <c r="F35">
-        <v>1822</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>1850</v>
-      </c>
-      <c r="I35">
-        <v>1909</v>
-      </c>
-      <c r="J35">
-        <v>1924</v>
-      </c>
-      <c r="K35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C36" t="s">
         <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="F36">
-        <v>1839</v>
+        <v>1853</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>1858</v>
+        <v>1917</v>
       </c>
       <c r="I36">
-        <v>1922</v>
+        <v>1933</v>
       </c>
       <c r="J36">
-        <v>1943</v>
-      </c>
-      <c r="K36" t="s">
-        <v>14</v>
+        <v>2002</v>
+      </c>
+      <c r="K36">
+        <f>J37-J36</f>
+        <v>-78</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <f>J36</f>
+        <v>2002</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1833</v>
+        <v>1800</v>
       </c>
       <c r="F37">
-        <v>1853</v>
+        <v>1822</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>1917</v>
+        <v>1850</v>
       </c>
       <c r="I37">
-        <v>1933</v>
+        <v>1909</v>
       </c>
       <c r="J37">
-        <v>2002</v>
-      </c>
-      <c r="K37" t="s">
-        <v>14</v>
+        <v>1924</v>
+      </c>
+      <c r="K37">
+        <f>J38-J37</f>
+        <v>96</v>
       </c>
       <c r="L37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="M37">
+        <v>2003</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2062,14 +2532,26 @@
       <c r="J38">
         <v>2020</v>
       </c>
-      <c r="K38" t="s">
-        <v>14</v>
+      <c r="K38">
+        <f>J39-J38</f>
+        <v>30</v>
       </c>
       <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <f>J38</f>
+        <v>2020</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -2100,14 +2582,26 @@
       <c r="J39">
         <v>2050</v>
       </c>
-      <c r="K39" t="s">
-        <v>14</v>
+      <c r="K39">
+        <f>J40-J39</f>
+        <v>74</v>
       </c>
       <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <f>J39</f>
+        <v>2050</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="O39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>31</v>
       </c>
@@ -2138,57 +2632,88 @@
       <c r="J40">
         <v>2124</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
+      <c r="K40">
+        <f>J41-J40</f>
+        <v>32</v>
       </c>
       <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <f>J40</f>
+        <v>2124</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>2043</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>2059</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>2117</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>2136</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>2156</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1">
+        <f>J42-J41</f>
+        <v>-2156</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" s="1">
+        <f>J41</f>
+        <v>2156</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L41" xr:uid="{38469CF5-B9FD-4CE4-9117-2FE68F6D5268}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
-      <sortCondition ref="J1:J41"/>
+  <autoFilter ref="A1:O41" xr:uid="{38469CF5-B9FD-4CE4-9117-2FE68F6D5268}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O41">
+      <sortCondition ref="M1:M41"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>